--- a/Report/1_3_7.xlsx
+++ b/Report/1_3_7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestLogin" sheetId="1" r:id="rId1"/>
@@ -193,13 +193,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,13 +247,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +271,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -295,15 +295,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:colOff>4705350</xdr:colOff>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -311,7 +311,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{173E0D93-8CD0-4E55-9B50-0BFFC052834E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{173E0D93-8CD0-4E55-9B50-0BFFC052834E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -369,7 +369,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -418,7 +418,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -467,7 +467,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -751,7 +751,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -759,283 +759,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E42"/>
+  <dimension ref="A2:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="44.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="70.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="17.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="71.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:6" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="C2" s="18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="2:6" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>5</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>6</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>7</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>8</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>9</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="2"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="4"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
@@ -1093,24 +1092,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:D3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1121,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1176,23 +1158,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1202,7 +1184,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="4"/>
@@ -1216,7 +1198,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="4"/>
@@ -1230,7 +1212,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4"/>
@@ -1243,7 +1225,7 @@
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2"/>
@@ -1461,17 +1443,17 @@
   <dimension ref="A3:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="A9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="27" style="10" customWidth="1"/>
-    <col min="5" max="5" width="83" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="7.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="27" style="9" customWidth="1"/>
+    <col min="5" max="5" width="83" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1514,20 +1496,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1539,7 +1521,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="4"/>
@@ -1552,7 +1534,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="4"/>
@@ -1561,189 +1543,189 @@
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="4"/>
     </row>
   </sheetData>
@@ -1756,18 +1738,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="20.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25" style="10" customWidth="1"/>
-    <col min="5" max="5" width="80.5703125" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="20.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="80.5703125" style="9" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1806,24 +1788,24 @@
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="19" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1837,7 +1819,7 @@
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1850,7 +1832,7 @@
       <c r="C11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1863,7 +1845,7 @@
       <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1876,7 +1858,7 @@
       <c r="C13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -1889,175 +1871,175 @@
       <c r="C14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="3"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
+      <c r="A26" s="11"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="3"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="3"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="3"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
+      <c r="A35" s="11"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="3"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="4"/>
     </row>
   </sheetData>
